--- a/biology/Botanique/Canavalia_rosea/Canavalia_rosea.xlsx
+++ b/biology/Botanique/Canavalia_rosea/Canavalia_rosea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Canavalia rosea, nommé Pois-bord-de-mer (Pwa bod lanmey en créole), Vonvon, Pois-cabrit aux Antilles françaises, est une liane rampante des hauts de plage des régions tropicales et subtropicales.
 Il est appelé Patate-cochon à La Réunion et Cocorico à l’île Maurice.
@@ -513,7 +525,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Canavalia lineata auct. non (Thunb.) DC.
 Canavalia maritima Thouars</t>
@@ -544,7 +558,9 @@
           <t>Description[1]</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">C’est une liane rampante, robuste dont les rameaux peuvent atteindre 10 m de long.
 Les feuilles de 9-25 cm de long, trifoliolées, sont caractéristiques de l’espèce par des folioles obovale-circulaires, de 4-12 × 4-9 cm, assez crassulenscentes à coriaces, lâchement pubescentes sur les deux faces, à l’apex arrondi parfois légèrement émarginé.
@@ -582,13 +598,15 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le pois-bord-de-mer est une plante commune des hauts de plage, avec Ipomoea pes-caprae. On le trouve partout dans les régions tropicales et subtropicales.
 Il porte sur ses racines des nodules contenant des bactéries rhizobiums, hautement tolérantes aux habitats fortement salins.
-Les Canavalia contiennent de nombreux toxiques : lectines, cyanides, alcaloïdes. Les graines sont comestibles[2].
+Les Canavalia contiennent de nombreux toxiques : lectines, cyanides, alcaloïdes. Les graines sont comestibles.
 On ne connait pas d'usage alimentaire de C. rosea dans les Amériques.
-En Malaisie, les fleurs seraient consommées[3]
+En Malaisie, les fleurs seraient consommées
 </t>
         </is>
       </c>
